--- a/results/partialCoop_EUOnly_20statRateCond.xlsx
+++ b/results/partialCoop_EUOnly_20statRateCond.xlsx
@@ -638,13 +638,13 @@
         <v>826583376.3415316</v>
       </c>
       <c r="G6" t="n">
-        <v>3246829666.059107</v>
+        <v>3246719060.927087</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6861118486.640676</v>
+        <v>6861007881.508656</v>
       </c>
     </row>
     <row r="7">
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2604500659.16819</v>
+        <v>2294682533.419445</v>
       </c>
       <c r="G7" t="n">
-        <v>6645054944.853836</v>
+        <v>6644861705.644294</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>11260117906.4365</v>
+        <v>10950106541.47822</v>
       </c>
     </row>
     <row r="8">
@@ -737,13 +737,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>291107651.3474146</v>
+        <v>291096775.0851523</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>319918079.3820856</v>
+        <v>319907203.1198233</v>
       </c>
     </row>
     <row r="10">
@@ -998,16 +998,16 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>296283909.0755829</v>
+        <v>296178026.8908914</v>
       </c>
       <c r="G17" t="n">
-        <v>71279094.8753323</v>
+        <v>71276596.21742274</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>379383063.276354</v>
+        <v>379274682.4337528</v>
       </c>
     </row>
     <row r="18">
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>90537.30873756681</v>
+        <v>90540.19425228065</v>
       </c>
       <c r="D18" t="n">
         <v>230335606.2153436</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>82426228.66231745</v>
+        <v>82396736.98180892</v>
       </c>
       <c r="G18" t="n">
-        <v>1932622880.85191</v>
+        <v>1932536103.801292</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2245475253.038309</v>
+        <v>2245358987.192697</v>
       </c>
     </row>
     <row r="19">
@@ -1067,13 +1067,13 @@
         <v>10217146574.60507</v>
       </c>
       <c r="G19" t="n">
-        <v>29892611320.16079</v>
+        <v>29891876396.66195</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>50284088333.57014</v>
+        <v>50283353410.0713</v>
       </c>
     </row>
     <row r="20">
@@ -1100,13 +1100,13 @@
         <v>2162513354.411344</v>
       </c>
       <c r="G20" t="n">
-        <v>1934322852.619915</v>
+        <v>1934272656.187267</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>5669596558.478845</v>
+        <v>5669546362.046197</v>
       </c>
     </row>
     <row r="21">
@@ -1133,13 +1133,13 @@
         <v>1875366743.291695</v>
       </c>
       <c r="G21" t="n">
-        <v>9435208016.219948</v>
+        <v>9434912986.598257</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>14105347485.46074</v>
+        <v>14105052455.83905</v>
       </c>
     </row>
     <row r="22">
@@ -1154,7 +1154,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>107300540.2000094</v>
+        <v>107300540.2000116</v>
       </c>
       <c r="D22" t="n">
         <v>8409755.638419209</v>
@@ -1163,16 +1163,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1131.850228557421</v>
+        <v>1131.445715262</v>
       </c>
       <c r="G22" t="n">
-        <v>71816719.96796815</v>
+        <v>71813478.97938491</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>187528147.6566253</v>
+        <v>187524906.263531</v>
       </c>
     </row>
     <row r="23">
@@ -1199,13 +1199,13 @@
         <v>421239804.2309884</v>
       </c>
       <c r="G23" t="n">
-        <v>1188104766.540507</v>
+        <v>1188067133.582547</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2820942696.242067</v>
+        <v>2820905063.284107</v>
       </c>
     </row>
     <row r="24">
@@ -1232,13 +1232,13 @@
         <v>5418411701.702073</v>
       </c>
       <c r="G24" t="n">
-        <v>18394287488.3755</v>
+        <v>18393817543.3258</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>27029502446.01233</v>
+        <v>27029032500.96263</v>
       </c>
     </row>
     <row r="25">
@@ -1298,13 +1298,13 @@
         <v>103808408.9572117</v>
       </c>
       <c r="G26" t="n">
-        <v>689443786.3403596</v>
+        <v>689422873.1571559</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>915513352.6199739</v>
+        <v>915492439.4367702</v>
       </c>
     </row>
     <row r="27">
@@ -1364,13 +1364,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>184174613.6204743</v>
+        <v>184164126.4454676</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>218265702.1522072</v>
+        <v>218255214.9772004</v>
       </c>
     </row>
     <row r="29">
@@ -1385,7 +1385,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>565082761.8001571</v>
+        <v>565082765.5200381</v>
       </c>
       <c r="D29" t="n">
         <v>150448858.6162017</v>
@@ -1394,16 +1394,16 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>87286563.32366437</v>
+        <v>87255324.52835703</v>
       </c>
       <c r="G29" t="n">
-        <v>1573649458.337889</v>
+        <v>1573599364.280173</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2376467642.077912</v>
+        <v>2376386312.94477</v>
       </c>
     </row>
     <row r="30">
@@ -1496,13 +1496,13 @@
         <v>12252873710.93849</v>
       </c>
       <c r="G32" t="n">
-        <v>25623099274.69697</v>
+        <v>25622778236.02359</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>42159512199.72591</v>
+        <v>42159191161.05253</v>
       </c>
     </row>
     <row r="33">
@@ -1595,13 +1595,13 @@
         <v>3620058858.934917</v>
       </c>
       <c r="G35" t="n">
-        <v>11062394172.15153</v>
+        <v>11062059397.5992</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>17688126956.62258</v>
+        <v>17687792182.07024</v>
       </c>
     </row>
     <row r="36">
@@ -1760,13 +1760,13 @@
         <v>1031132.31895</v>
       </c>
       <c r="G40" t="n">
-        <v>110776204.1729288</v>
+        <v>110771865.2475032</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>149673650.8582831</v>
+        <v>149669311.9328575</v>
       </c>
     </row>
     <row r="41">
@@ -1793,13 +1793,13 @@
         <v>4476135347.038216</v>
       </c>
       <c r="G41" t="n">
-        <v>3856809495.33183</v>
+        <v>3856730226.3444</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>11513999053.97369</v>
+        <v>11513919784.98627</v>
       </c>
     </row>
     <row r="42">
@@ -1814,7 +1814,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>164313933.3017717</v>
+        <v>164313933.3020834</v>
       </c>
       <c r="D42" t="n">
         <v>26010754.65499776</v>
@@ -1823,16 +1823,16 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>85959.13050162437</v>
+        <v>85928.40771124304</v>
       </c>
       <c r="G42" t="n">
-        <v>74823343.64301625</v>
+        <v>74820943.23275189</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>265233990.7302873</v>
+        <v>265231559.5975443</v>
       </c>
     </row>
     <row r="43">
@@ -1955,16 +1955,16 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>51124053.14187074</v>
+        <v>51105783.07633179</v>
       </c>
       <c r="G46" t="n">
-        <v>260704878.4840372</v>
+        <v>260697769.8425766</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>420851572.4810936</v>
+        <v>420826193.7740941</v>
       </c>
     </row>
     <row r="47">
@@ -2012,7 +2012,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2502804674.249134</v>
+        <v>1290552412.996203</v>
       </c>
       <c r="D48" t="n">
         <v>1983589528.839027</v>
@@ -2024,13 +2024,13 @@
         <v>3218237842.638599</v>
       </c>
       <c r="G48" t="n">
-        <v>17706440320.08012</v>
+        <v>17706093802.10919</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>25411072365.80688</v>
+        <v>24198473586.58302</v>
       </c>
     </row>
     <row r="49">
@@ -2177,7 +2177,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4031323080.766756</v>
+        <v>4031323091.636458</v>
       </c>
       <c r="D53" t="n">
         <v>658415208.1593025</v>
@@ -2186,16 +2186,16 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>83707053.97851485</v>
+        <v>83677007.06257923</v>
       </c>
       <c r="G53" t="n">
-        <v>4230583349.349267</v>
+        <v>4230435719.441906</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>9004028692.253839</v>
+        <v>9003851026.300245</v>
       </c>
     </row>
     <row r="54">
@@ -2243,7 +2243,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>222906.0974928759</v>
+        <v>222913.2017334712</v>
       </c>
       <c r="D55" t="n">
         <v>2837951661.945522</v>
@@ -2252,16 +2252,16 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>75683311.21377133</v>
+        <v>75656177.70855384</v>
       </c>
       <c r="G55" t="n">
-        <v>2794381734.502191</v>
+        <v>2794313511.056952</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>5708239613.758976</v>
+        <v>5708144263.912762</v>
       </c>
     </row>
     <row r="56">
@@ -2288,13 +2288,13 @@
         <v>1648004688.212083</v>
       </c>
       <c r="G56" t="n">
-        <v>1159258906.919594</v>
+        <v>1159209789.173692</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>3097391271.738657</v>
+        <v>3097342153.992754</v>
       </c>
     </row>
     <row r="57">
@@ -2375,7 +2375,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>31.8871637419285</v>
+        <v>31.88818001777592</v>
       </c>
       <c r="D59" t="n">
         <v>80799421.41225857</v>
@@ -2384,16 +2384,16 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>15714114.41766413</v>
+        <v>15708498.69439514</v>
       </c>
       <c r="G59" t="n">
-        <v>844439070.1158718</v>
+        <v>844406710.8712457</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>940952637.8329582</v>
+        <v>940914662.8660794</v>
       </c>
     </row>
     <row r="60">
@@ -2420,13 +2420,13 @@
         <v>740048.7312050576</v>
       </c>
       <c r="G60" t="n">
-        <v>149789922.8095858</v>
+        <v>149783510.9973028</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>183259127.5828613</v>
+        <v>183252715.7705783</v>
       </c>
     </row>
     <row r="61">
@@ -2453,13 +2453,13 @@
         <v>2731420631.153298</v>
       </c>
       <c r="G61" t="n">
-        <v>4317734191.806141</v>
+        <v>4317616836.130303</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>7673190882.511879</v>
+        <v>7673073526.836042</v>
       </c>
     </row>
     <row r="62">
@@ -2873,7 +2873,7 @@
         <v>871751267.89247</v>
       </c>
       <c r="D6" t="n">
-        <v>714766412.0522585</v>
+        <v>714420470.4278558</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -2882,13 +2882,13 @@
         <v>432699893.0129533</v>
       </c>
       <c r="G6" t="n">
-        <v>2777696363.950988</v>
+        <v>2777603439.093056</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>4796913936.908669</v>
+        <v>4796475070.426334</v>
       </c>
     </row>
     <row r="7">
@@ -2906,22 +2906,22 @@
         <v>771180929.3941004</v>
       </c>
       <c r="D7" t="n">
-        <v>425274971.2724407</v>
+        <v>424670573.5846787</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2198006800.387751</v>
+        <v>2017282341.288148</v>
       </c>
       <c r="G7" t="n">
-        <v>5791515684.587485</v>
+        <v>5791353334.741997</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9185978385.641777</v>
+        <v>9004487179.008924</v>
       </c>
     </row>
     <row r="8">
@@ -2972,7 +2972,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>17691648.3787363</v>
+        <v>17657630.50121331</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -2981,13 +2981,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>251330814.805676</v>
+        <v>251321677.1182368</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>269022463.1844122</v>
+        <v>268979307.6194501</v>
       </c>
     </row>
     <row r="10">
@@ -3236,22 +3236,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>7745972.435273441</v>
+        <v>7738157.338810182</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>229757262.4026999</v>
+        <v>229668305.5270976</v>
       </c>
       <c r="G17" t="n">
-        <v>55413233.49410526</v>
+        <v>55411134.24765053</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>292916468.3320786</v>
+        <v>292817597.1135584</v>
       </c>
     </row>
     <row r="18">
@@ -3266,25 +3266,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>70435.77251545069</v>
+        <v>70439.38449902159</v>
       </c>
       <c r="D18" t="n">
-        <v>146601108.8743423</v>
+        <v>146329694.7608774</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>63918277.99525587</v>
+        <v>63893499.38381829</v>
       </c>
       <c r="G18" t="n">
-        <v>1644891150.533745</v>
+        <v>1644818244.82898</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1855480973.175858</v>
+        <v>1855111878.358175</v>
       </c>
     </row>
     <row r="19">
@@ -3302,7 +3302,7 @@
         <v>2835069363.81169</v>
       </c>
       <c r="D19" t="n">
-        <v>2275645370.143687</v>
+        <v>2273346736.939631</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>7260715462.353046</v>
       </c>
       <c r="G19" t="n">
-        <v>25989750584.37125</v>
+        <v>25989133138.6843</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>38361180780.67968</v>
+        <v>38358264701.78867</v>
       </c>
     </row>
     <row r="20">
@@ -3335,7 +3335,7 @@
         <v>991805413.0775133</v>
       </c>
       <c r="D20" t="n">
-        <v>176269732.8179283</v>
+        <v>176112732.5492032</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -3344,13 +3344,13 @@
         <v>1130824590.998353</v>
       </c>
       <c r="G20" t="n">
-        <v>1641222267.565723</v>
+        <v>1641180095.052682</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>3940122004.459517</v>
+        <v>3939922831.677752</v>
       </c>
     </row>
     <row r="21">
@@ -3368,7 +3368,7 @@
         <v>134792808.3516003</v>
       </c>
       <c r="D21" t="n">
-        <v>742710702.850801</v>
+        <v>741787933.493623</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -3377,13 +3377,13 @@
         <v>1300988740.775733</v>
       </c>
       <c r="G21" t="n">
-        <v>8165814285.095675</v>
+        <v>8165566416.075668</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>10344306537.07381</v>
+        <v>10343135898.69662</v>
       </c>
     </row>
     <row r="22">
@@ -3398,25 +3398,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>58335953.25007542</v>
+        <v>57608532.1761839</v>
       </c>
       <c r="D22" t="n">
-        <v>5113525.748619992</v>
+        <v>5103388.851401196</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>877.7365391027062</v>
+        <v>877.3966879701775</v>
       </c>
       <c r="G22" t="n">
-        <v>61174785.35466707</v>
+        <v>61172062.43939038</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>124625142.0899016</v>
+        <v>123884860.8636634</v>
       </c>
     </row>
     <row r="23">
@@ -3434,7 +3434,7 @@
         <v>857650250.0368606</v>
       </c>
       <c r="D23" t="n">
-        <v>78046648.26917876</v>
+        <v>77928943.00207147</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>316562231.4796273</v>
       </c>
       <c r="G23" t="n">
-        <v>1004967183.306696</v>
+        <v>1004935565.991946</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2257226313.092363</v>
+        <v>2257076990.510506</v>
       </c>
     </row>
     <row r="24">
@@ -3467,7 +3467,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2207870852.406487</v>
+        <v>2206400996.976586</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -3476,13 +3476,13 @@
         <v>4699468589.309033</v>
       </c>
       <c r="G24" t="n">
-        <v>16001478580.04841</v>
+        <v>16001083755.90073</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>22908818021.76394</v>
+        <v>22906953342.18635</v>
       </c>
     </row>
     <row r="25">
@@ -3533,7 +3533,7 @@
         <v>16927148.92870053</v>
       </c>
       <c r="D26" t="n">
-        <v>46598158.71800169</v>
+        <v>46532748.18562557</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -3542,13 +3542,13 @@
         <v>76860602.84036654</v>
       </c>
       <c r="G26" t="n">
-        <v>595596327.2296199</v>
+        <v>595578757.0270205</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>735982237.7166886</v>
+        <v>735899256.9817131</v>
       </c>
     </row>
     <row r="27">
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>21265926.96263812</v>
+        <v>21233126.04019459</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -3608,13 +3608,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>154110780.6291552</v>
+        <v>154101969.8332199</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>175376707.5917933</v>
+        <v>175335095.8734145</v>
       </c>
     </row>
     <row r="29">
@@ -3629,25 +3629,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>307219362.3385053</v>
+        <v>303389299.1420747</v>
       </c>
       <c r="D29" t="n">
-        <v>100979984.0033045</v>
+        <v>100823303.9344605</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>67713060.91282356</v>
+        <v>67686815.445133</v>
       </c>
       <c r="G29" t="n">
-        <v>1305891271.90445</v>
+        <v>1305849185.401667</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1781803679.159083</v>
+        <v>1777748603.923336</v>
       </c>
     </row>
     <row r="30">
@@ -3731,7 +3731,7 @@
         <v>2697192434.663378</v>
       </c>
       <c r="D32" t="n">
-        <v>689331642.0359846</v>
+        <v>688327523.7085592</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3740,13 +3740,13 @@
         <v>11182857328.75006</v>
       </c>
       <c r="G32" t="n">
-        <v>23392463097.84823</v>
+        <v>23392193377.33372</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>37961844503.29765</v>
+        <v>37960570664.45571</v>
       </c>
     </row>
     <row r="33">
@@ -3830,7 +3830,7 @@
         <v>912249696.7945271</v>
       </c>
       <c r="D35" t="n">
-        <v>1151482628.879023</v>
+        <v>1150435548.600482</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3839,13 +3839,13 @@
         <v>3080467310.690993</v>
       </c>
       <c r="G35" t="n">
-        <v>9523414189.111116</v>
+        <v>9523132928.403345</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>14667613825.47566</v>
+        <v>14666285484.48935</v>
       </c>
     </row>
     <row r="36">
@@ -3995,7 +3995,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>15265995.55273783</v>
+        <v>15252424.61907046</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -4004,13 +4004,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>95018600.78959845</v>
+        <v>95014955.44311774</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>110284596.3423363</v>
+        <v>110267380.0621882</v>
       </c>
     </row>
     <row r="41">
@@ -4028,7 +4028,7 @@
         <v>2473987704.214796</v>
       </c>
       <c r="D41" t="n">
-        <v>312829996.2127462</v>
+        <v>312582065.2010871</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -4037,13 +4037,13 @@
         <v>3367960752.58817</v>
       </c>
       <c r="G41" t="n">
-        <v>3420738025.765869</v>
+        <v>3420671427.957423</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>9575516478.78158</v>
+        <v>9575201949.961475</v>
       </c>
     </row>
     <row r="42">
@@ -4058,25 +4058,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>89332354.67119992</v>
+        <v>88218423.55277395</v>
       </c>
       <c r="D42" t="n">
-        <v>18940225.66326296</v>
+        <v>18932717.85769441</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>66660.59303476363</v>
+        <v>66634.78129328687</v>
       </c>
       <c r="G42" t="n">
-        <v>62394708.19187593</v>
+        <v>62392691.48814146</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>170733949.1193736</v>
+        <v>169610467.6799031</v>
       </c>
     </row>
     <row r="43">
@@ -4190,25 +4190,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>51949719.96212066</v>
+        <v>51301932.12298515</v>
       </c>
       <c r="D46" t="n">
-        <v>8520477.10107418</v>
+        <v>8498243.277658716</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>39644820.83908883</v>
+        <v>39629471.25075036</v>
       </c>
       <c r="G46" t="n">
-        <v>233413206.1435719</v>
+        <v>233407233.8212596</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>333528224.0458555</v>
+        <v>332836880.4726538</v>
       </c>
     </row>
     <row r="47">
@@ -4256,10 +4256,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2024644095.294044</v>
+        <v>812391834.0411135</v>
       </c>
       <c r="D48" t="n">
-        <v>1435536287.855133</v>
+        <v>1434452477.478903</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -4268,13 +4268,13 @@
         <v>1824895563.077239</v>
       </c>
       <c r="G48" t="n">
-        <v>15417511232.37175</v>
+        <v>15417220105.43549</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>20702587178.59817</v>
+        <v>19488959980.03275</v>
       </c>
     </row>
     <row r="49">
@@ -4421,25 +4421,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2191787329.470241</v>
+        <v>2164460162.284015</v>
       </c>
       <c r="D53" t="n">
-        <v>444773708.7856682</v>
+        <v>444311964.117672</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>64907944.52180131</v>
+        <v>64882695.99251785</v>
       </c>
       <c r="G53" t="n">
-        <v>3655278600.679286</v>
+        <v>3655154569.47099</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>6356747583.456997</v>
+        <v>6328809391.865195</v>
       </c>
     </row>
     <row r="54">
@@ -4487,25 +4487,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>153668.36797171</v>
+        <v>153676.2481666827</v>
       </c>
       <c r="D55" t="n">
-        <v>1952029704.187203</v>
+        <v>1951816320.512891</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>58708808.31256747</v>
+        <v>58686010.19731768</v>
       </c>
       <c r="G55" t="n">
-        <v>2394232841.183335</v>
+        <v>2394175523.282794</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>4405125022.051077</v>
+        <v>4404831530.241169</v>
       </c>
     </row>
     <row r="56">
@@ -4523,7 +4523,7 @@
         <v>52849684.23546708</v>
       </c>
       <c r="D56" t="n">
-        <v>146745201.4690755</v>
+        <v>146591575.027932</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -4532,13 +4532,13 @@
         <v>1443866969.734998</v>
       </c>
       <c r="G56" t="n">
-        <v>990581397.6149338</v>
+        <v>990540131.3601357</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2634043253.054474</v>
+        <v>2633848360.358532</v>
       </c>
     </row>
     <row r="57">
@@ -4619,25 +4619,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>14.60145735862537</v>
+        <v>14.60220612906129</v>
       </c>
       <c r="D59" t="n">
-        <v>51891101.4048551</v>
+        <v>51789890.82406195</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>12185727.26774324</v>
+        <v>12181009.22016434</v>
       </c>
       <c r="G59" t="n">
-        <v>737506001.5550878</v>
+        <v>737478814.9485103</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>801582844.8291435</v>
+        <v>801449729.5949427</v>
       </c>
     </row>
     <row r="60">
@@ -4655,7 +4655,7 @@
         <v>8015337.35609397</v>
       </c>
       <c r="D60" t="n">
-        <v>11355836.07437777</v>
+        <v>11335781.73588492</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -4664,13 +4664,13 @@
         <v>105634.5662736499</v>
       </c>
       <c r="G60" t="n">
-        <v>130454854.795923</v>
+        <v>130449467.9143686</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>149931662.7926683</v>
+        <v>149906221.5726212</v>
       </c>
     </row>
     <row r="61">
@@ -4688,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>440221477.5979795</v>
+        <v>439854422.1784795</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -4697,13 +4697,13 @@
         <v>2078009637.451496</v>
       </c>
       <c r="G61" t="n">
-        <v>3527525073.253058</v>
+        <v>3527426476.928406</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>6045756188.302534</v>
+        <v>6045290536.558382</v>
       </c>
     </row>
     <row r="62">
@@ -5117,7 +5117,7 @@
         <v>1221433265.567402</v>
       </c>
       <c r="D6" t="n">
-        <v>834108722.3351675</v>
+        <v>833894307.5478402</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
@@ -5126,13 +5126,13 @@
         <v>586339425.5870962</v>
       </c>
       <c r="G6" t="n">
-        <v>2951989065.187612</v>
+        <v>2951887823.863538</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>5593870478.677279</v>
+        <v>5593554822.565876</v>
       </c>
     </row>
     <row r="7">
@@ -5150,22 +5150,22 @@
         <v>1004869116.959594</v>
       </c>
       <c r="D7" t="n">
-        <v>506586274.4060569</v>
+        <v>506211668.4247549</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>2356228598.723887</v>
+        <v>2126499838.636096</v>
       </c>
       <c r="G7" t="n">
-        <v>6113977024.907747</v>
+        <v>6113800145.29032</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>9981661014.997284</v>
+        <v>9751380769.310764</v>
       </c>
     </row>
     <row r="8">
@@ -5216,7 +5216,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>21953545.56337618</v>
+        <v>21932461.26631591</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -5225,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>266289663.3678424</v>
+        <v>266279707.8877276</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>288243208.9312186</v>
+        <v>288212169.1540435</v>
       </c>
     </row>
     <row r="10">
@@ -5480,22 +5480,22 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>9296854.408497756</v>
+        <v>9292010.607902771</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>255823890.5113559</v>
+        <v>255726972.2908508</v>
       </c>
       <c r="G17" t="n">
-        <v>61223905.64759162</v>
+        <v>61221618.52555167</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>326344650.5674453</v>
+        <v>326240601.4243052</v>
       </c>
     </row>
     <row r="18">
@@ -5510,25 +5510,25 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>79192.33601442508</v>
+        <v>79195.45192008157</v>
       </c>
       <c r="D18" t="n">
-        <v>178674880.4808883</v>
+        <v>178506657.8811457</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>71169226.68543568</v>
+        <v>71142231.28991313</v>
       </c>
       <c r="G18" t="n">
-        <v>1753650320.562831</v>
+        <v>1753570890.03964</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2003573620.065169</v>
+        <v>2003298974.662619</v>
       </c>
     </row>
     <row r="19">
@@ -5546,7 +5546,7 @@
         <v>4425459111.226663</v>
       </c>
       <c r="D19" t="n">
-        <v>2710212558.77474</v>
+        <v>2708787864.795106</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -5555,13 +5555,13 @@
         <v>8422274974.073162</v>
       </c>
       <c r="G19" t="n">
-        <v>27454308292.26009</v>
+        <v>27453635587.23496</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>43012254936.33466</v>
+        <v>43010157537.32989</v>
       </c>
     </row>
     <row r="20">
@@ -5579,7 +5579,7 @@
         <v>1118005625.402117</v>
       </c>
       <c r="D20" t="n">
-        <v>205548163.2622397</v>
+        <v>205450854.4192026</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -5588,13 +5588,13 @@
         <v>1540941334.98001</v>
       </c>
       <c r="G20" t="n">
-        <v>1746268830.155972</v>
+        <v>1746222883.343086</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4610763953.800339</v>
+        <v>4610620698.144416</v>
       </c>
     </row>
     <row r="21">
@@ -5612,7 +5612,7 @@
         <v>746626619.4004967</v>
       </c>
       <c r="D21" t="n">
-        <v>869078538.9972538</v>
+        <v>868506606.1001557</v>
       </c>
       <c r="E21" t="n">
         <v>0</v>
@@ -5621,13 +5621,13 @@
         <v>1527739071.169963</v>
       </c>
       <c r="G21" t="n">
-        <v>8645333225.711805</v>
+        <v>8645063173.237785</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>11788777455.27952</v>
+        <v>11787935469.9084</v>
       </c>
     </row>
     <row r="22">
@@ -5642,25 +5642,25 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>76952265.35560679</v>
+        <v>76501409.41965269</v>
       </c>
       <c r="D22" t="n">
-        <v>6377352.920076165</v>
+        <v>6371070.066241852</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>977.3046289771761</v>
+        <v>976.9343620664716</v>
       </c>
       <c r="G22" t="n">
-        <v>65100103.7357047</v>
+        <v>65097137.1285547</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>148430699.3160166</v>
+        <v>147970593.5488113</v>
       </c>
     </row>
     <row r="23">
@@ -5678,7 +5678,7 @@
         <v>949961004.0002382</v>
       </c>
       <c r="D23" t="n">
-        <v>95316146.84230922</v>
+        <v>95243193.06041701</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -5687,13 +5687,13 @@
         <v>358770558.0567805</v>
       </c>
       <c r="G23" t="n">
-        <v>1072363950.230919</v>
+        <v>1072329503.271513</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2476411659.130247</v>
+        <v>2476304258.388949</v>
       </c>
     </row>
     <row r="24">
@@ -5711,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>2591670515.630512</v>
+        <v>2590759498.519032</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
@@ -5720,13 +5720,13 @@
         <v>4973282138.740775</v>
       </c>
       <c r="G24" t="n">
-        <v>16896479641.82244</v>
+        <v>16896049482.22491</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>24461432296.19373</v>
+        <v>24460091119.48472</v>
       </c>
     </row>
     <row r="25">
@@ -5777,7 +5777,7 @@
         <v>29015740.08553806</v>
       </c>
       <c r="D26" t="n">
-        <v>57030898.03258886</v>
+        <v>56990356.55275796</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -5786,13 +5786,13 @@
         <v>87663110.93857871</v>
       </c>
       <c r="G26" t="n">
-        <v>630871120.5789537</v>
+        <v>630851977.9015797</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>804580869.6356595</v>
+        <v>804521185.4784545</v>
       </c>
     </row>
     <row r="27">
@@ -5843,7 +5843,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>26185083.36818747</v>
+        <v>26164753.34047827</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -5852,13 +5852,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165407702.273397</v>
+        <v>165398102.9404899</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>191592785.6415844</v>
+        <v>191562856.2809682</v>
       </c>
     </row>
     <row r="29">
@@ -5873,25 +5873,25 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>405259291.7082416</v>
+        <v>402885417.9541403</v>
       </c>
       <c r="D29" t="n">
-        <v>119914972.7512848</v>
+        <v>119817862.3682899</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>75382607.93759878</v>
+        <v>75354013.87164921</v>
       </c>
       <c r="G29" t="n">
-        <v>1405262233.738627</v>
+        <v>1405216380.633632</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>2005819106.135752</v>
+        <v>2003273674.827711</v>
       </c>
     </row>
     <row r="30">
@@ -5975,7 +5975,7 @@
         <v>2933516177.783658</v>
       </c>
       <c r="D32" t="n">
-        <v>799026739.3736469</v>
+        <v>798404386.3451608</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -5984,13 +5984,13 @@
         <v>11632238683.1477</v>
       </c>
       <c r="G32" t="n">
-        <v>24245053708.86497</v>
+        <v>24244759849.26027</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>39609835309.16997</v>
+        <v>39608919096.53679</v>
       </c>
     </row>
     <row r="33">
@@ -6074,7 +6074,7 @@
         <v>1087728491.901122</v>
       </c>
       <c r="D35" t="n">
-        <v>1340075915.726344</v>
+        <v>1339426934.859628</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -6083,13 +6083,13 @@
         <v>3293254072.602161</v>
       </c>
       <c r="G35" t="n">
-        <v>10101842660.50009</v>
+        <v>10101536227.89316</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>15822901140.72972</v>
+        <v>15821945727.25607</v>
       </c>
     </row>
     <row r="36">
@@ -6239,7 +6239,7 @@
         <v>4584617.094695453</v>
       </c>
       <c r="D40" t="n">
-        <v>17939713.8843772</v>
+        <v>17931302.61307919</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -6248,13 +6248,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>100823035.3417459</v>
+        <v>100819063.7488629</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>123347366.3208186</v>
+        <v>123334983.4566376</v>
       </c>
     </row>
     <row r="41">
@@ -6272,7 +6272,7 @@
         <v>2582969545.753955</v>
       </c>
       <c r="D41" t="n">
-        <v>355572762.2428184</v>
+        <v>355419094.4810145</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -6281,13 +6281,13 @@
         <v>3812108331.641644</v>
       </c>
       <c r="G41" t="n">
-        <v>3585460424.796762</v>
+        <v>3585387866.705659</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>10336111064.43518</v>
+        <v>10335884838.58227</v>
       </c>
     </row>
     <row r="42">
@@ -6302,25 +6302,25 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>117840314.0729189</v>
+        <v>117149899.0231743</v>
       </c>
       <c r="D42" t="n">
-        <v>21622485.87350532</v>
+        <v>21617832.53195657</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>74222.51266132492</v>
+        <v>74194.39088048485</v>
       </c>
       <c r="G42" t="n">
-        <v>66823152.33274846</v>
+        <v>66820955.14072809</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>206360174.791834</v>
+        <v>205662881.0867394</v>
       </c>
     </row>
     <row r="43">
@@ -6434,25 +6434,25 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>68528041.6709657</v>
+        <v>68126542.45270517</v>
       </c>
       <c r="D46" t="n">
-        <v>10414029.41025744</v>
+        <v>10400248.87567352</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>44142640.8010779</v>
+        <v>44125917.47556563</v>
       </c>
       <c r="G46" t="n">
-        <v>243819864.6568475</v>
+        <v>243813357.8315249</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>366904576.5391486</v>
+        <v>366466066.6354692</v>
       </c>
     </row>
     <row r="47">
@@ -6500,10 +6500,10 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2214097325.319032</v>
+        <v>1001845064.066102</v>
       </c>
       <c r="D48" t="n">
-        <v>1643721590.824049</v>
+        <v>1643049844.624892</v>
       </c>
       <c r="E48" t="n">
         <v>0</v>
@@ -6512,13 +6512,13 @@
         <v>2378673863.6001</v>
       </c>
       <c r="G48" t="n">
-        <v>16247676434.38505</v>
+        <v>16247359252.55495</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>22484169214.12823</v>
+        <v>21270928024.84605</v>
       </c>
     </row>
     <row r="49">
@@ -6665,25 +6665,25 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2891180324.77426</v>
+        <v>2874242936.451978</v>
       </c>
       <c r="D53" t="n">
-        <v>526108096.1325513</v>
+        <v>525821906.5623922</v>
       </c>
       <c r="E53" t="n">
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>72272303.26627634</v>
+        <v>72244798.32711643</v>
       </c>
       <c r="G53" t="n">
-        <v>3871524960.905532</v>
+        <v>3871389829.316054</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>7361085685.078619</v>
+        <v>7343699470.657541</v>
       </c>
     </row>
     <row r="54">
@@ -6731,25 +6731,25 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>181386.7968841937</v>
+        <v>181393.9337382741</v>
       </c>
       <c r="D55" t="n">
-        <v>2286003572.026678</v>
+        <v>2285871316.721391</v>
       </c>
       <c r="E55" t="n">
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>65359208.66493109</v>
+        <v>65334371.64268081</v>
       </c>
       <c r="G55" t="n">
-        <v>2533507966.118459</v>
+        <v>2533445518.456197</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>4885052133.606952</v>
+        <v>4884832600.754007</v>
       </c>
     </row>
     <row r="56">
@@ -6767,7 +6767,7 @@
         <v>60551696.24306175</v>
       </c>
       <c r="D56" t="n">
-        <v>174062770.3404473</v>
+        <v>173967552.5973888</v>
       </c>
       <c r="E56" t="n">
         <v>0</v>
@@ -6776,13 +6776,13 @@
         <v>1523510916.248781</v>
       </c>
       <c r="G56" t="n">
-        <v>1054097300.136206</v>
+        <v>1054052340.688666</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>2812222682.968495</v>
+        <v>2812082505.777897</v>
       </c>
     </row>
     <row r="57">
@@ -6863,25 +6863,25 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>21.13530734140502</v>
+        <v>21.1361389322762</v>
       </c>
       <c r="D59" t="n">
-        <v>62960476.80213422</v>
+        <v>62897746.43485475</v>
       </c>
       <c r="E59" t="n">
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>13568228.50844968</v>
+        <v>13563088.21126729</v>
       </c>
       <c r="G59" t="n">
-        <v>778096349.3034643</v>
+        <v>778066729.5858964</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>854625075.7493556</v>
+        <v>854527585.3681574</v>
       </c>
     </row>
     <row r="60">
@@ -6899,7 +6899,7 @@
         <v>10485495.16764931</v>
       </c>
       <c r="D60" t="n">
-        <v>14093408.05024763</v>
+        <v>14080978.36148046</v>
       </c>
       <c r="E60" t="n">
         <v>0</v>
@@ -6908,13 +6908,13 @@
         <v>346712.0264263992</v>
       </c>
       <c r="G60" t="n">
-        <v>137848177.1008613</v>
+        <v>137842308.1113</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>162773792.3451847</v>
+        <v>162755493.6668562</v>
       </c>
     </row>
     <row r="61">
@@ -6932,7 +6932,7 @@
         <v>0</v>
       </c>
       <c r="D61" t="n">
-        <v>510147499.0530168</v>
+        <v>509919997.9252028</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
@@ -6941,13 +6941,13 @@
         <v>2346762980.504397</v>
       </c>
       <c r="G61" t="n">
-        <v>3811919756.078735</v>
+        <v>3811812335.710507</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>6668830235.636149</v>
+        <v>6668495314.140107</v>
       </c>
     </row>
     <row r="62">
